--- a/data_analysis/data_analysis/Actual_lab_data.xlsx
+++ b/data_analysis/data_analysis/Actual_lab_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\Coding Projects\Y3_Lab_Group_18\data_analysis\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B57F7E-BA2A-4FDE-936B-B6EAD3BCA0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDE9C7-6718-4E95-B962-61417E790FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{B78CC800-590C-42EA-8E61-F2ED893D04EA}"/>
   </bookViews>
@@ -257,6 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,7 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,10 +309,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33902E28-B72B-4E8B-8973-C831940B5E1C}">
   <dimension ref="A1:BK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -644,110 +640,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="L1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="L1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-      <c r="W1" s="16" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="W1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="19"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="L2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27"/>
-      <c r="W2" s="25" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
+      <c r="W2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="27"/>
-      <c r="AJ2" s="22" t="s">
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AJ2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="25"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
@@ -1015,7 +1011,7 @@
         <v>-0.2</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:AF4" si="2">MIN(AL4,AU4,BD4)</f>
+        <f t="shared" ref="Y4:AF14" si="2">MIN(AL4,AU4,BD4)</f>
         <v>-0.25</v>
       </c>
       <c r="Z4" s="1">
@@ -1203,35 +1199,35 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" ref="Y5:Y14" si="9">MIN(AL5,AU5,BD5)</f>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" ref="Z5:Z14" si="10">MIN(AM5,AV5,BE5)</f>
+        <f t="shared" si="2"/>
         <v>-5.07</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" ref="AA5:AA14" si="11">MIN(AN5,AW5,BF5)</f>
+        <f t="shared" si="2"/>
         <v>-6.86</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB14" si="12">MIN(AO5,AX5,BG5)</f>
+        <f t="shared" si="2"/>
         <v>-17.78</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC14" si="13">MIN(AP5,AY5,BH5)</f>
+        <f t="shared" si="2"/>
         <v>-9.7899999999999991</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD14" si="14">MIN(AQ5,AZ5,BI5)</f>
+        <f t="shared" si="2"/>
         <v>8.1300000000000008</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" ref="AE5:AE14" si="15">MIN(AR5,BA5,BJ5)</f>
+        <f t="shared" si="2"/>
         <v>20.67</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF14" si="16">MIN(AS5,BB5,BK5)</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="AJ5">
@@ -1409,35 +1405,35 @@
         <v>10.81</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-10.94</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-12.14</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-32.090000000000003</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-17.940000000000001</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>14.17</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>36.19</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>14.94</v>
       </c>
       <c r="AJ6">
@@ -1615,35 +1611,35 @@
         <v>17.38</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-17.309999999999999</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-17.21</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-47.08</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-27.51</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>20.350000000000001</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>49.61</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>19.329999999999998</v>
       </c>
       <c r="AJ7">
@@ -1750,15 +1746,15 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>-41.465000000000003</v>
+        <v>-21.770000000000003</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>-50.204999999999998</v>
+        <v>-61.555</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>-5.620000000000001</v>
+        <v>-38.495000000000005</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="0"/>
@@ -1789,16 +1785,16 @@
         <v>-23.47</v>
       </c>
       <c r="P8" s="1">
-        <f>MAX(AO8,AW8,BF8)</f>
+        <f t="shared" si="1"/>
         <v>-21.69</v>
       </c>
       <c r="Q8" s="1">
-        <f>MAX(AP8,AX8,BG8)</f>
-        <v>-38.54</v>
+        <f t="shared" si="1"/>
+        <v>-61.24</v>
       </c>
       <c r="R8" s="1">
-        <f>MAX(AQ8,AY8,BH8)</f>
-        <v>27.28</v>
+        <f t="shared" si="1"/>
+        <v>-38.450000000000003</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="1"/>
@@ -1821,35 +1817,35 @@
         <v>23.91</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>1.98</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-23.65</v>
       </c>
       <c r="AA8" s="1">
-        <f>MIN(AO8,AW8,BF8)</f>
-        <v>-61.24</v>
+        <f t="shared" si="2"/>
+        <v>-21.85</v>
       </c>
       <c r="AB8" s="1">
-        <f>MIN(AP8,AX8,BG8)</f>
+        <f t="shared" si="2"/>
         <v>-61.87</v>
       </c>
       <c r="AC8" s="1">
-        <f>MIN(AQ8,AY8,BH8)</f>
-        <v>-38.520000000000003</v>
+        <f t="shared" si="2"/>
+        <v>-38.54</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>27.28</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>62.77</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>22.18</v>
       </c>
       <c r="AJ8">
@@ -2027,35 +2023,35 @@
         <v>30.21</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>4.01</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-29.03</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-27.09</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-77.599999999999994</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-50.39</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>35.090000000000003</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>78.02</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>26.7</v>
       </c>
       <c r="AJ9">
@@ -2233,35 +2229,35 @@
         <v>25.87</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>3.98</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-24.25</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-19.43</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-57.31</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-39.090000000000003</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>25.96</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>58.04</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>21.08</v>
       </c>
       <c r="AJ10">
@@ -2439,35 +2435,35 @@
         <v>20.55</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-19.77</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-12.13</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-37.49</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-27.83</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>19.21</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>41.14</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>15.08</v>
       </c>
       <c r="AJ11">
@@ -2645,35 +2641,35 @@
         <v>14.66</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-14.56</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-5.86</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-20.11</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-17.78</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>13.34</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>25.99</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>9.42</v>
       </c>
       <c r="AJ12">
@@ -2783,7 +2779,7 @@
         <v>0.39500000000000002</v>
       </c>
       <c r="F13" s="13">
-        <f>(Q13+AB13)/2</f>
+        <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
       <c r="G13" s="13">
@@ -2851,35 +2847,35 @@
         <v>8.65</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2.13</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-8.33</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-4.8</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-9.1300000000000008</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>7.66</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>12.08</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="AJ13">
@@ -3057,35 +3053,35 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2.17</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>-2.23</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>1.89</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>9.9600000000000009</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-1.1499999999999999</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>2.35</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>-1.88</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>-1.19</v>
       </c>
       <c r="AJ14">
@@ -3186,72 +3182,72 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="L16" s="16" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="L16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="18"/>
-      <c r="W16" s="16" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
+      <c r="W16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="18"/>
-      <c r="AJ16" s="22" t="s">
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="19"/>
+      <c r="AJ16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="24"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
-      <c r="BK16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="24"/>
+      <c r="BG16" s="24"/>
+      <c r="BH16" s="24"/>
+      <c r="BI16" s="24"/>
+      <c r="BJ16" s="24"/>
+      <c r="BK16" s="25"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
@@ -3434,27 +3430,27 @@
         <v>-0.1</v>
       </c>
       <c r="B18" s="15">
-        <f t="shared" ref="B18:B28" si="17">(M18+X18)/2</f>
+        <f t="shared" ref="B18:B28" si="9">(M18+X18)/2</f>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="C18" s="15">
-        <f t="shared" ref="C18:C28" si="18">(N18+Y18)/2</f>
+        <f t="shared" ref="C18:C28" si="10">(N18+Y18)/2</f>
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:D28" si="19">(O18+Z18)/2</f>
+        <f t="shared" ref="D18:D28" si="11">(O18+Z18)/2</f>
         <v>0.11499999999999999</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" ref="E18:E28" si="20">(P18+AA18)/2</f>
+        <f t="shared" ref="E18:E28" si="12">(P18+AA18)/2</f>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" ref="F18:F28" si="21">(Q18+AB18)/2</f>
+        <f t="shared" ref="F18:F28" si="13">(Q18+AB18)/2</f>
         <v>0.105</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" ref="G18:G28" si="22">(R18+AC18)/2</f>
+        <f t="shared" ref="G18:G28" si="14">(R18+AC18)/2</f>
         <v>-0.12</v>
       </c>
       <c r="H18" s="15">
@@ -3462,11 +3458,11 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" ref="I18:J28" si="23">(T18+AE18)/2</f>
+        <f t="shared" ref="I18:J28" si="15">(T18+AE18)/2</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>0.16999999999999998</v>
       </c>
       <c r="L18" s="2">
@@ -3477,35 +3473,35 @@
         <v>0.09</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:U18" si="24">MAX(AL18,AU18,BD18)</f>
+        <f t="shared" ref="N18:U28" si="16">MAX(AL18,AU18,BD18)</f>
         <v>-0.02</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.18</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.19</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>-0.12</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.03</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.19</v>
       </c>
       <c r="W18" s="2">
@@ -3516,35 +3512,35 @@
         <v>-0.24</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" ref="Y18:AF18" si="25">MIN(AL18,AU18,BD18)</f>
+        <f t="shared" ref="Y18:AF28" si="17">MIN(AL18,AU18,BD18)</f>
         <v>-0.13</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.05</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>-0.05</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.02</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>-0.12</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>-0.12</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>-0.01</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="AJ18">
@@ -3637,27 +3633,27 @@
         <v>10</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>4.47</v>
       </c>
       <c r="C19" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-3.74</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-12.855</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-16.414999999999999</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-3.5649999999999999</v>
       </c>
       <c r="H19" s="15">
@@ -3665,91 +3661,91 @@
         <v>1.81</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20.009999999999998</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" ref="L19:L26" si="26">A19</f>
+        <f t="shared" ref="L19:L26" si="18">A19</f>
         <v>10</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" ref="M19:M28" si="27">MAX(AK19,AT19,BC19)</f>
+        <f t="shared" ref="M19:M28" si="19">MAX(AK19,AT19,BC19)</f>
         <v>4.59</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" ref="N19:N28" si="28">MAX(AL19,AU19,BD19)</f>
+        <f t="shared" si="16"/>
         <v>0.87</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" ref="O19:O28" si="29">MAX(AM19,AV19,BE19)</f>
+        <f t="shared" si="16"/>
         <v>-3.65</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:P28" si="30">MAX(AN19,AW19,BF19)</f>
+        <f t="shared" si="16"/>
         <v>-12.78</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ref="Q19:Q28" si="31">MAX(AO19,AX19,BG19)</f>
+        <f t="shared" si="16"/>
         <v>-15.93</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19:R28" si="32">MAX(AP19,AY19,BH19)</f>
+        <f t="shared" si="16"/>
         <v>-3.35</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" ref="S19:S28" si="33">MAX(AQ19,AZ19,BI19)</f>
+        <f t="shared" si="16"/>
         <v>1.83</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" ref="T19:T28" si="34">MAX(AR19,BA19,BJ19)</f>
+        <f t="shared" si="16"/>
         <v>20.079999999999998</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ref="U19:U28" si="35">MAX(AS19,BB19,BK19)</f>
+        <f t="shared" si="16"/>
         <v>15.1</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" ref="W19:W28" si="36">A19</f>
+        <f t="shared" ref="W19:W28" si="20">A19</f>
         <v>10</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19:X28" si="37">MIN(AK19,AT19,BC19)</f>
+        <f t="shared" ref="X19:X28" si="21">MIN(AK19,AT19,BC19)</f>
         <v>4.3499999999999996</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19:Y28" si="38">MIN(AL19,AU19,BD19)</f>
+        <f t="shared" si="17"/>
         <v>0.84</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" ref="Z19:Z28" si="39">MIN(AM19,AV19,BE19)</f>
+        <f t="shared" si="17"/>
         <v>-3.83</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" ref="AA19:AA28" si="40">MIN(AN19,AW19,BF19)</f>
+        <f t="shared" si="17"/>
         <v>-12.93</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19:AB28" si="41">MIN(AO19,AX19,BG19)</f>
+        <f t="shared" si="17"/>
         <v>-16.899999999999999</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19:AC28" si="42">MIN(AP19,AY19,BH19)</f>
+        <f t="shared" si="17"/>
         <v>-3.78</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AD28" si="43">MIN(AQ19,AZ19,BI19)</f>
+        <f t="shared" si="17"/>
         <v>1.79</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" ref="AE19:AE28" si="44">MIN(AR19,BA19,BJ19)</f>
+        <f t="shared" si="17"/>
         <v>19.940000000000001</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" ref="AF19:AF28" si="45">MIN(AS19,BB19,BK19)</f>
+        <f t="shared" si="17"/>
         <v>14.9</v>
       </c>
       <c r="AJ19">
@@ -3842,117 +3838,117 @@
         <v>19.899999999999999</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>10.45</v>
       </c>
       <c r="C20" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>2.09</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-8.8949999999999996</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-25.035</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-31.695</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>-7.7799999999999994</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" ref="H20:H28" si="46">(S20+AD20)/2</f>
+        <f t="shared" ref="H20:H28" si="22">(S20+AD20)/2</f>
         <v>3.25</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>36.555</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>27.365000000000002</v>
       </c>
       <c r="L20" s="2">
         <v>19.899999999999999</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>10.47</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>2.19</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>-8.84</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>-24.98</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="16"/>
         <v>-31.59</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>-6.79</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>3.27</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="16"/>
         <v>36.630000000000003</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>27.73</v>
       </c>
       <c r="W20" s="2">
         <v>19.899999999999999</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>10.43</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>1.99</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-8.9499999999999993</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-25.09</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-31.8</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-8.77</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>3.23</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>36.479999999999997</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="AJ20">
@@ -4045,119 +4041,119 @@
         <v>30</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>17.850000000000001</v>
       </c>
       <c r="C21" s="15">
+        <f t="shared" si="10"/>
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="11"/>
+        <v>-10.75</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="12"/>
+        <v>-35.015000000000001</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="13"/>
+        <v>-45.08</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="14"/>
+        <v>-10.465</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="22"/>
+        <v>4.76</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="15"/>
+        <v>48.92</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="15"/>
+        <v>36.980000000000004</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="18"/>
-        <v>3.2349999999999999</v>
-      </c>
-      <c r="D21" s="15">
+        <v>30</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="19"/>
-        <v>-10.75</v>
-      </c>
-      <c r="E21" s="15">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="16"/>
+        <v>3.26</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="16"/>
+        <v>-5.75</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="16"/>
+        <v>-34.99</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="16"/>
+        <v>-44.99</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="16"/>
+        <v>-10.46</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="16"/>
+        <v>4.76</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="16"/>
+        <v>48.95</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="16"/>
+        <v>37.090000000000003</v>
+      </c>
+      <c r="W21" s="2">
         <f t="shared" si="20"/>
-        <v>-35.015000000000001</v>
-      </c>
-      <c r="F21" s="15">
+        <v>30</v>
+      </c>
+      <c r="X21" s="1">
         <f t="shared" si="21"/>
-        <v>-45.08</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="22"/>
-        <v>-10.465</v>
-      </c>
-      <c r="H21" s="15">
-        <f t="shared" si="46"/>
+        <v>17.850000000000001</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="17"/>
+        <v>3.21</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="17"/>
+        <v>-15.75</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="17"/>
+        <v>-35.04</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="17"/>
+        <v>-45.17</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="17"/>
+        <v>-10.47</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="17"/>
         <v>4.76</v>
       </c>
-      <c r="I21" s="15">
-        <f t="shared" si="23"/>
-        <v>48.92</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="23"/>
-        <v>36.980000000000004</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="27"/>
-        <v>17.850000000000001</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="28"/>
-        <v>3.26</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="29"/>
-        <v>-5.75</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="30"/>
-        <v>-34.99</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="31"/>
-        <v>-44.99</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="32"/>
-        <v>-10.46</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="33"/>
-        <v>4.76</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="34"/>
-        <v>48.95</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" si="35"/>
-        <v>37.090000000000003</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="36"/>
-        <v>30</v>
-      </c>
-      <c r="X21" s="1">
-        <f t="shared" si="37"/>
-        <v>17.850000000000001</v>
-      </c>
-      <c r="Y21" s="1">
-        <f t="shared" si="38"/>
-        <v>3.21</v>
-      </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="39"/>
-        <v>-15.75</v>
-      </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="40"/>
-        <v>-35.04</v>
-      </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="41"/>
-        <v>-45.17</v>
-      </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="42"/>
-        <v>-10.47</v>
-      </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="43"/>
-        <v>4.76</v>
-      </c>
       <c r="AE21" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>48.89</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>36.869999999999997</v>
       </c>
       <c r="AJ21">
@@ -4250,118 +4246,118 @@
         <v>40.1</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>24.785</v>
       </c>
       <c r="C22" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>5.0250000000000004</v>
       </c>
       <c r="D22" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-22.35</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-45.745000000000005</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-58.59</v>
       </c>
       <c r="G22" s="15">
+        <f t="shared" si="14"/>
+        <v>-13.184999999999999</v>
+      </c>
+      <c r="H22" s="15">
         <f t="shared" si="22"/>
-        <v>-13.184999999999999</v>
-      </c>
-      <c r="H22" s="15">
-        <f t="shared" si="46"/>
         <v>6.2</v>
       </c>
       <c r="I22" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>62.55</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>47.260000000000005</v>
       </c>
       <c r="L22" s="2">
         <v>40</v>
       </c>
       <c r="M22" s="1">
-        <f>MAX(AK22,AT22,BC22)</f>
+        <f t="shared" si="19"/>
         <v>24.85</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>5.13</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>-22.28</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>-45.14</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="16"/>
         <v>-58.55</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>-12.85</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>6.21</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="16"/>
         <v>62.64</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>47.35</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>40.1</v>
       </c>
       <c r="X22" s="1">
-        <f>MIN(AK22,AT22,BC22)</f>
+        <f t="shared" si="21"/>
         <v>24.72</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>4.92</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-22.42</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-46.35</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-58.63</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-13.52</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>6.19</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>62.46</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>47.17</v>
       </c>
       <c r="AJ22">
@@ -4454,119 +4450,119 @@
         <v>49.8</v>
       </c>
       <c r="B23" s="15">
-        <f t="shared" si="17"/>
-        <v>28.42</v>
+        <f t="shared" si="9"/>
+        <v>31.925000000000001</v>
       </c>
       <c r="C23" s="15">
+        <f t="shared" si="10"/>
+        <v>8.49</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="11"/>
+        <v>-27.25</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="12"/>
+        <v>-59.19</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="13"/>
+        <v>-72.62</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="14"/>
+        <v>-17.16</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="22"/>
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="15"/>
+        <v>76.764999999999986</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="15"/>
+        <v>57.314999999999998</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="18"/>
-        <v>8.49</v>
-      </c>
-      <c r="D23" s="15">
+        <v>49.8</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="19"/>
-        <v>-27.25</v>
-      </c>
-      <c r="E23" s="15">
+        <v>32</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="16"/>
+        <v>8.51</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="16"/>
+        <v>-27.18</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="16"/>
+        <v>-59.13</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="16"/>
+        <v>-72.55</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="16"/>
+        <v>-16.12</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="16"/>
+        <v>7.71</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="16"/>
+        <v>76.819999999999993</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="16"/>
+        <v>57.35</v>
+      </c>
+      <c r="W23" s="2">
         <f t="shared" si="20"/>
-        <v>-39.19</v>
-      </c>
-      <c r="F23" s="15">
+        <v>49.8</v>
+      </c>
+      <c r="X23" s="1">
         <f t="shared" si="21"/>
-        <v>-72.62</v>
-      </c>
-      <c r="G23" s="15">
-        <f t="shared" si="22"/>
-        <v>-17.16</v>
-      </c>
-      <c r="H23" s="15">
-        <f t="shared" si="46"/>
-        <v>7.6349999999999998</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="23"/>
-        <v>76.764999999999986</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="23"/>
-        <v>57.314999999999998</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="26"/>
-        <v>49.8</v>
-      </c>
-      <c r="M23" s="1">
-        <f>MAX(AK23,AT23,BC22)</f>
-        <v>31.99</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="28"/>
-        <v>8.51</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="29"/>
-        <v>-27.18</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" si="30"/>
-        <v>-19.13</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" si="31"/>
-        <v>-72.55</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="32"/>
-        <v>-16.12</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" si="33"/>
-        <v>7.71</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" si="34"/>
-        <v>76.819999999999993</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" si="35"/>
-        <v>57.35</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="36"/>
-        <v>49.8</v>
-      </c>
-      <c r="X23" s="1">
-        <f>MIN(AK23,AT23,BC22)</f>
-        <v>24.85</v>
+        <v>31.85</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>8.4700000000000006</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-27.32</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-59.25</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-72.69</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-18.2</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>7.56</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>76.709999999999994</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>57.28</v>
       </c>
       <c r="AJ23">
@@ -4582,7 +4578,7 @@
         <v>-27.18</v>
       </c>
       <c r="AN23">
-        <v>-19.13</v>
+        <v>-59.13</v>
       </c>
       <c r="AO23">
         <v>-72.69</v>
@@ -4659,15 +4655,15 @@
         <v>40.1</v>
       </c>
       <c r="B24" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>27.94</v>
       </c>
       <c r="C24" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>7.4399999999999995</v>
       </c>
       <c r="D24" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-24.184999999999999</v>
       </c>
       <c r="E24" s="15">
@@ -4675,103 +4671,103 @@
         <v>-43.629999999999995</v>
       </c>
       <c r="F24" s="15">
+        <f t="shared" si="13"/>
+        <v>-54.685000000000002</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="14"/>
+        <v>-13.41</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="22"/>
+        <v>5.54</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="15"/>
+        <v>57.260000000000005</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="15"/>
+        <v>44.71</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="18"/>
+        <v>40.1</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="19"/>
+        <v>28.01</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="16"/>
+        <v>7.46</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="16"/>
+        <v>-24.08</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="16"/>
+        <v>-43.51</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="16"/>
+        <v>-54.52</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="16"/>
+        <v>-13.37</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="16"/>
+        <v>5.57</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="16"/>
+        <v>57.34</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="16"/>
+        <v>44.75</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="20"/>
+        <v>40.1</v>
+      </c>
+      <c r="X24" s="1">
         <f t="shared" si="21"/>
-        <v>-54.685000000000002</v>
-      </c>
-      <c r="G24" s="15">
-        <f t="shared" si="22"/>
-        <v>-13.41</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="46"/>
-        <v>5.54</v>
-      </c>
-      <c r="I24" s="15">
-        <f t="shared" si="23"/>
-        <v>57.260000000000005</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="23"/>
-        <v>44.71</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="26"/>
-        <v>40.1</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="27"/>
-        <v>28.01</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="28"/>
-        <v>7.46</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="29"/>
-        <v>-24.08</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="30"/>
-        <v>-43.51</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="31"/>
-        <v>-54.52</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="32"/>
-        <v>-13.37</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" si="33"/>
-        <v>5.57</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" si="34"/>
-        <v>57.34</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" si="35"/>
-        <v>44.75</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="36"/>
-        <v>40.1</v>
-      </c>
-      <c r="X24" s="1">
-        <f t="shared" si="37"/>
         <v>27.87</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>7.42</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-24.29</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-43.75</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-54.85</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-13.45</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>5.51</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>57.18</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>44.67</v>
       </c>
       <c r="AJ24">
@@ -4864,119 +4860,119 @@
         <v>30</v>
       </c>
       <c r="B25" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>23.3</v>
       </c>
       <c r="C25" s="15">
+        <f t="shared" si="10"/>
+        <v>5.62</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="11"/>
+        <v>-20.465</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="12"/>
+        <v>-29.48</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="13"/>
+        <v>-36.909999999999997</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="14"/>
+        <v>-9.8849999999999998</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="22"/>
+        <v>4.08</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="15"/>
+        <v>39.545000000000002</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="15"/>
+        <v>31.93</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="18"/>
-        <v>5.62</v>
-      </c>
-      <c r="D25" s="15">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="19"/>
-        <v>-20.465</v>
-      </c>
-      <c r="E25" s="15">
+        <v>23.34</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="16"/>
+        <v>5.63</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="16"/>
+        <v>-20.41</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="16"/>
+        <v>-29.44</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="16"/>
+        <v>-36.82</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="16"/>
+        <v>-9.85</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="16"/>
+        <v>4.13</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="16"/>
+        <v>39.57</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="16"/>
+        <v>31.98</v>
+      </c>
+      <c r="W25" s="2">
         <f t="shared" si="20"/>
-        <v>-29.48</v>
-      </c>
-      <c r="F25" s="15">
+        <v>30</v>
+      </c>
+      <c r="X25" s="1">
         <f t="shared" si="21"/>
-        <v>-36.909999999999997</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" si="22"/>
-        <v>-9.8849999999999998</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="46"/>
-        <v>4.08</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="23"/>
-        <v>39.545000000000002</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="23"/>
-        <v>31.93</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="27"/>
-        <v>23.34</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" si="28"/>
-        <v>5.63</v>
-      </c>
-      <c r="O25" s="1">
-        <f t="shared" si="29"/>
-        <v>-20.41</v>
-      </c>
-      <c r="P25" s="1">
-        <f t="shared" si="30"/>
-        <v>-29.44</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" si="31"/>
-        <v>-36.82</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="32"/>
-        <v>-9.85</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" si="33"/>
-        <v>4.13</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" si="34"/>
-        <v>39.57</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" si="35"/>
-        <v>31.98</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="36"/>
-        <v>30</v>
-      </c>
-      <c r="X25" s="1">
-        <f t="shared" si="37"/>
         <v>23.26</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>5.61</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-20.52</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-29.52</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-37</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-9.92</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>4.03</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>39.520000000000003</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>31.88</v>
       </c>
       <c r="AJ25">
@@ -5069,119 +5065,119 @@
         <v>20</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>16.925000000000001</v>
       </c>
       <c r="C26" s="15">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="11"/>
+        <v>-15.715</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="12"/>
+        <v>-16.869999999999997</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="13"/>
+        <v>-21.14</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="14"/>
+        <v>-6.1849999999999996</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="22"/>
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="15"/>
+        <v>23.365000000000002</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="15"/>
+        <v>19.524999999999999</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="18"/>
-        <v>3.05</v>
-      </c>
-      <c r="D26" s="15">
+        <v>20</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="19"/>
-        <v>-15.715</v>
-      </c>
-      <c r="E26" s="15">
+        <v>17</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="16"/>
+        <v>3.17</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="16"/>
+        <v>-15.68</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="16"/>
+        <v>-16.84</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="16"/>
+        <v>-21.05</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="16"/>
+        <v>-6.06</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="16"/>
+        <v>2.84</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="16"/>
+        <v>23.47</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="16"/>
+        <v>19.559999999999999</v>
+      </c>
+      <c r="W26" s="2">
         <f t="shared" si="20"/>
-        <v>-16.869999999999997</v>
-      </c>
-      <c r="F26" s="15">
+        <v>20</v>
+      </c>
+      <c r="X26" s="1">
         <f t="shared" si="21"/>
-        <v>-21.14</v>
-      </c>
-      <c r="G26" s="15">
-        <f t="shared" si="22"/>
-        <v>-6.1849999999999996</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="46"/>
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="23"/>
-        <v>23.365000000000002</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="23"/>
-        <v>19.524999999999999</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="27"/>
-        <v>17</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="28"/>
-        <v>3.17</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="29"/>
-        <v>-15.68</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="30"/>
-        <v>-16.84</v>
-      </c>
-      <c r="Q26" s="1">
-        <f t="shared" si="31"/>
-        <v>-21.05</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="32"/>
-        <v>-6.06</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="33"/>
-        <v>2.84</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="34"/>
-        <v>23.47</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="35"/>
-        <v>19.559999999999999</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="36"/>
-        <v>20</v>
-      </c>
-      <c r="X26" s="1">
-        <f t="shared" si="37"/>
         <v>16.850000000000001</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>2.93</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-15.75</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-16.899999999999999</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-21.23</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-6.31</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>2.79</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>23.26</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>19.489999999999998</v>
       </c>
       <c r="AJ26">
@@ -5274,117 +5270,117 @@
         <v>10</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>9.6150000000000002</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-9.7050000000000001</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>-5.59</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>-6.9050000000000002</v>
       </c>
       <c r="G27" s="15">
+        <f t="shared" si="14"/>
+        <v>-2.875</v>
+      </c>
+      <c r="H27" s="15">
         <f t="shared" si="22"/>
-        <v>-2.875</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="46"/>
         <v>1.7749999999999999</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>8.93</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>8.01</v>
       </c>
       <c r="L27" s="2">
         <v>10.1</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>9.65</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>0.61</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>-9.61</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>-5.5</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="16"/>
         <v>-6.78</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>-2.81</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>1.83</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="16"/>
         <v>9.0299999999999994</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>8.0299999999999994</v>
       </c>
       <c r="W27" s="2">
         <v>10.1</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>9.58</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>0.34</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-9.8000000000000007</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>-5.68</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>-7.03</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>-2.94</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>1.72</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>8.83</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>7.99</v>
       </c>
       <c r="AJ27">
@@ -5477,118 +5473,118 @@
         <v>0</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.395</v>
       </c>
       <c r="C28" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>0.39</v>
       </c>
       <c r="D28" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>-2.48</v>
       </c>
       <c r="E28" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>3.9550000000000001</v>
       </c>
       <c r="F28" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>6.12</v>
       </c>
       <c r="G28" s="15">
+        <f t="shared" si="14"/>
+        <v>0.155</v>
+      </c>
+      <c r="H28" s="15">
         <f t="shared" si="22"/>
-        <v>0.155</v>
-      </c>
-      <c r="H28" s="15">
-        <f t="shared" si="46"/>
         <v>-0.2</v>
       </c>
       <c r="I28" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>-4.1300000000000008</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>-1.62</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.42</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>0.44</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>-2.46</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="16"/>
         <v>3.99</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="16"/>
         <v>6.17</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
         <v>-0.18</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="16"/>
         <v>-4.03</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>-1.49</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>2.37</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>0.34</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>-2.5</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="17"/>
         <v>3.92</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="17"/>
         <v>6.07</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="17"/>
         <v>0.11</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="17"/>
         <v>-0.22</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="17"/>
         <v>-4.2300000000000004</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="17"/>
         <v>-1.75</v>
       </c>
       <c r="AJ28">
@@ -5706,24 +5702,24 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="F30" s="16" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="F30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
-      <c r="K30" s="16" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="K30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
@@ -5821,7 +5817,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
-        <f t="shared" ref="A33:A43" si="47">A4</f>
+        <f t="shared" ref="A33:A43" si="23">A4</f>
         <v>-0.5</v>
       </c>
       <c r="B33" s="1">
@@ -5829,16 +5825,16 @@
         <v>-0.13</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="B33:D39" si="48">(H33+M33)/2</f>
+        <f t="shared" ref="B33:D39" si="24">(H33+M33)/2</f>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2">
-        <f t="shared" ref="F33:F43" si="49">A33</f>
+        <f t="shared" ref="F33:F43" si="25">A33</f>
         <v>-0.5</v>
       </c>
       <c r="G33" s="1">
@@ -5846,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" ref="H33:I33" si="50">MAX(U33,Y33,AC33)</f>
+        <f t="shared" ref="H33:I33" si="26">MAX(U33,Y33,AC33)</f>
         <v>0.1</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="26"/>
         <v>0.16</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="2">
-        <f t="shared" ref="K33:K43" si="51">A33</f>
+        <f t="shared" ref="K33:K43" si="27">A33</f>
         <v>-0.5</v>
       </c>
       <c r="L33" s="1">
@@ -5863,11 +5859,11 @@
         <v>-0.26</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:N33" si="52">MIN(U33,Y33,AC33)</f>
+        <f t="shared" ref="M33:N33" si="28">MIN(U33,Y33,AC33)</f>
         <v>-0.08</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="28"/>
         <v>0.11</v>
       </c>
       <c r="S33">
@@ -5900,53 +5896,53 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>9.9</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-19.700000000000003</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>20.34</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-0.47499999999999998</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>9.9</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" ref="G34:G43" si="53">MAX(T34,X34,AB34)</f>
+        <f t="shared" ref="G34:G43" si="29">MAX(T34,X34,AB34)</f>
         <v>-19.690000000000001</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H43" si="54">MAX(U34,Y34,AC34)</f>
+        <f t="shared" ref="H34:H43" si="30">MAX(U34,Y34,AC34)</f>
         <v>20.43</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ref="I34:I43" si="55">MAX(V34,Z34,AD34)</f>
+        <f t="shared" ref="I34:I43" si="31">MAX(V34,Z34,AD34)</f>
         <v>-0.47</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>9.9</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" ref="L34:L43" si="56">MIN(T34,X34,AB34)</f>
+        <f t="shared" ref="L34:L43" si="32">MIN(T34,X34,AB34)</f>
         <v>-19.71</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" ref="M34:M43" si="57">MIN(U34,Y34,AC34)</f>
+        <f t="shared" ref="M34:M43" si="33">MIN(U34,Y34,AC34)</f>
         <v>20.25</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34:N43" si="58">MIN(V34,Z34,AD34)</f>
+        <f t="shared" ref="N34:N43" si="34">MIN(V34,Z34,AD34)</f>
         <v>-0.48</v>
       </c>
       <c r="S34">
@@ -5973,53 +5969,53 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>19.899999999999999</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-44.33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>45.234999999999999</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-0.73</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>19.899999999999999</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-44.26</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>45.25</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-0.67</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>19.899999999999999</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-44.4</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>45.22</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-0.79</v>
       </c>
       <c r="S35">
@@ -6055,53 +6051,53 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>29.9</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-74.205000000000013</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>76.17</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-3.8650000000000002</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>29.9</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-74.12</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>76.22</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-3.75</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>29.9</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-74.290000000000006</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>76.12</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-3.98</v>
       </c>
       <c r="S36">
@@ -6137,53 +6133,53 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>39.9</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-105.66499999999999</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>109.53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-7.0150000000000006</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>39.9</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-105.58</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>109.62</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-6.95</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>39.9</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-105.75</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>109.44</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-7.08</v>
       </c>
       <c r="S37">
@@ -6210,53 +6206,53 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>49.9</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-132.85500000000002</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>140.91000000000003</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-8.8350000000000009</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>49.9</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-132.80000000000001</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>140.96</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-8.7799999999999994</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>49.9</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-132.91</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>140.86000000000001</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-8.89</v>
       </c>
       <c r="S38">
@@ -6283,53 +6279,53 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>39.9</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-115.505</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>125.22499999999999</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="24"/>
         <v>-8.0549999999999997</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>39.9</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-115.5</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>125.27</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-7.98</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>39.9</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-115.51</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>125.18</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-8.1300000000000008</v>
       </c>
       <c r="S39">
@@ -6356,7 +6352,7 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="B40" s="1">
@@ -6372,36 +6368,36 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-97.34</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>105.89</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-7.07</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>30</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-97.53</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>105.83</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-7.11</v>
       </c>
       <c r="S40">
@@ -6428,7 +6424,7 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>20.100000000000001</v>
       </c>
       <c r="B41" s="1">
@@ -6445,36 +6441,36 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>20.100000000000001</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-75.319999999999993</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>82.88</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-5.77</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>20.100000000000001</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-75.48</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>82.74</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-5.8</v>
       </c>
       <c r="S41">
@@ -6501,7 +6497,7 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>10.1</v>
       </c>
       <c r="B42" s="1">
@@ -6518,36 +6514,36 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>10.1</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-47.16</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>55.86</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>-2.3199999999999998</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>10.1</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-47.25</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>55.81</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>-2.34</v>
       </c>
       <c r="S42">
@@ -6574,7 +6570,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>0.1</v>
       </c>
       <c r="B43" s="1">
@@ -6590,35 +6586,35 @@
         <v>1.88</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="29"/>
         <v>-15.41</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="30"/>
         <v>25.23</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="31"/>
         <v>1.91</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="27"/>
         <v>0.1</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="32"/>
         <v>-15.42</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="33"/>
         <v>25.23</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="34"/>
         <v>1.85</v>
       </c>
       <c r="S43">
@@ -6752,15 +6748,15 @@
         <v>-0.1</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47:B57" si="59">(G47+L47)/2</f>
+        <f t="shared" ref="B47:B57" si="35">(G47+L47)/2</f>
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:C57" si="60">(H47+M47)/2</f>
+        <f t="shared" ref="C47:C57" si="36">(H47+M47)/2</f>
         <v>0.16999999999999998</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ref="D47:D57" si="61">(I47+N47)/2</f>
+        <f t="shared" ref="D47:D57" si="37">(I47+N47)/2</f>
         <v>-0.04</v>
       </c>
       <c r="F47" s="2">
@@ -6771,11 +6767,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:I47" si="62">MAX(U47,Y47,AC47)</f>
+        <f t="shared" ref="H47:I47" si="38">MAX(U47,Y47,AC47)</f>
         <v>0.21</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="38"/>
         <v>0.05</v>
       </c>
       <c r="K47" s="2">
@@ -6787,11 +6783,11 @@
         <v>-0.17</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" ref="M47:N47" si="63">MIN(U47,Y47,AC47)</f>
+        <f t="shared" ref="M47:N47" si="39">MIN(U47,Y47,AC47)</f>
         <v>0.13</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="39"/>
         <v>-0.13</v>
       </c>
       <c r="S47">
@@ -6821,47 +6817,47 @@
         <v>10</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-18.53</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>20.265000000000001</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-0.54499999999999993</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" ref="F48:F56" si="64">A48</f>
+        <f t="shared" ref="F48:F56" si="40">A48</f>
         <v>10</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" ref="G48:G57" si="65">MAX(T48,X48,AB48)</f>
+        <f t="shared" ref="G48:G57" si="41">MAX(T48,X48,AB48)</f>
         <v>-18.53</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ref="H48:H57" si="66">MAX(U48,Y48,AC48)</f>
+        <f t="shared" ref="H48:H57" si="42">MAX(U48,Y48,AC48)</f>
         <v>20.34</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I57" si="67">MAX(V48,Z48,AD48)</f>
+        <f t="shared" ref="I48:I57" si="43">MAX(V48,Z48,AD48)</f>
         <v>-0.49</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" ref="K48:K57" si="68">A48</f>
+        <f t="shared" ref="K48:K57" si="44">A48</f>
         <v>10</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" ref="L48:L57" si="69">MIN(T48,X48,AB48)</f>
+        <f t="shared" ref="L48:L57" si="45">MIN(T48,X48,AB48)</f>
         <v>-18.53</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" ref="M48:M57" si="70">MIN(U48,Y48,AC48)</f>
+        <f t="shared" ref="M48:M57" si="46">MIN(U48,Y48,AC48)</f>
         <v>20.190000000000001</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48:N57" si="71">MIN(V48,Z48,AD48)</f>
+        <f t="shared" ref="N48:N57" si="47">MIN(V48,Z48,AD48)</f>
         <v>-0.6</v>
       </c>
       <c r="S48">
@@ -6891,46 +6887,46 @@
         <v>19.899999999999999</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-41.085000000000001</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>44.234999999999999</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-2.5949999999999998</v>
       </c>
       <c r="F49" s="2">
         <v>19.899999999999999</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-41.04</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>44.25</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-2.57</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>19.899999999999999</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-41.13</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>44.22</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-2.62</v>
       </c>
       <c r="S49">
@@ -6960,47 +6956,47 @@
         <v>30</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-69.650000000000006</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>74.094999999999999</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-5.4950000000000001</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>30</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-69.599999999999994</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>74.239999999999995</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-5.41</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>30</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-69.7</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>73.95</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-5.58</v>
       </c>
       <c r="S50">
@@ -7027,7 +7023,7 @@
       <c r="BC50" t="s">
         <v>21</v>
       </c>
-      <c r="BD50" s="28" t="s">
+      <c r="BD50" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7036,47 +7032,47 @@
         <v>40.1</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-100.30000000000001</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>106.24000000000001</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-7.55</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>40.1</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-100.18</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>106.26</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-7.54</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>40.1</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-100.42</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>106.22</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-7.56</v>
       </c>
       <c r="S51">
@@ -7106,47 +7102,47 @@
         <v>49.8</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-128.565</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>141.36000000000001</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-9.120000000000001</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>49.8</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-128.5</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>141.4</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-9.09</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>49.8</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-128.63</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>141.32</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-9.15</v>
       </c>
       <c r="S52">
@@ -7176,47 +7172,47 @@
         <v>40.1</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-110.52000000000001</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>122.55000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-8.6750000000000007</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>40.1</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-110.45</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>122.62</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-8.61</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>40.1</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-110.59</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>122.48</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-8.74</v>
       </c>
       <c r="S53">
@@ -7246,47 +7242,47 @@
         <v>30</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-91.305000000000007</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>100.85499999999999</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-7.9850000000000003</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>30</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-91.21</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>100.86</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-7.98</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>30</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-91.4</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>100.85</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-7.99</v>
       </c>
       <c r="S54">
@@ -7316,47 +7312,47 @@
         <v>20</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-68.84</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>74.884999999999991</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-6.93</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-68.83</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>74.92</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-6.92</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-68.849999999999994</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>74.849999999999994</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-6.94</v>
       </c>
       <c r="S55">
@@ -7386,31 +7382,31 @@
         <v>10</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-40.980000000000004</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>44.224999999999994</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-5.085</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-40.97</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>44.29</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-5.04</v>
       </c>
       <c r="K56" s="2">
@@ -7418,15 +7414,15 @@
         <v>10</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-40.99</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>44.16</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-5.13</v>
       </c>
       <c r="S56">
@@ -7456,15 +7452,15 @@
         <v>-0.1</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="35"/>
         <v>-6.7899999999999991</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="36"/>
         <v>11.690000000000001</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="37"/>
         <v>-1.22</v>
       </c>
       <c r="F57" s="6">
@@ -7472,31 +7468,31 @@
         <v>-0.1</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="41"/>
         <v>-6.77</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="42"/>
         <v>11.72</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="43"/>
         <v>-1.18</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="44"/>
         <v>-0.1</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>-6.81</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>11.66</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-1.26</v>
       </c>
       <c r="S57">
@@ -7548,12 +7544,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBC96AA5F2ABD7478CD3495289558810" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61d29ee9d0ca6de06a3627f58bfb43cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f488dcd-90b1-46d1-aa5b-ac74a5c74572" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1395cddb65c7137a5ecb99b7086f212" ns2:_="">
     <xsd:import namespace="9f488dcd-90b1-46d1-aa5b-ac74a5c74572"/>
@@ -7697,16 +7702,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{754C0250-C03A-4BC9-A588-7B7100F6F7E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6631E24E-9E8E-4FBC-BD04-98E46722271A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7722,7 +7726,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FC2DF38-8D3A-483C-B2BD-6F34F4D5F174}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7738,12 +7742,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{754C0250-C03A-4BC9-A588-7B7100F6F7E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>